--- a/tests/fixtures/orderforms/1508.22.mip_rna.xlsx
+++ b/tests/fixtures/orderforms/1508.22.mip_rna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1FE2BE-B0D1-1740-A9AF-18312C77BA63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93478D7-E61B-0E48-9AEC-C863352E841A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12820" yWindow="4460" windowWidth="25420" windowHeight="15940" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10280" yWindow="2000" windowWidth="25420" windowHeight="15940" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="593">
   <si>
     <t>Document name</t>
   </si>
@@ -2464,102 +2464,6 @@
     <t>s14</t>
   </si>
   <si>
-    <t>s15</t>
-  </si>
-  <si>
-    <t>s16</t>
-  </si>
-  <si>
-    <t>s17</t>
-  </si>
-  <si>
-    <t>s18</t>
-  </si>
-  <si>
-    <t>s19</t>
-  </si>
-  <si>
-    <t>s20</t>
-  </si>
-  <si>
-    <t>s21</t>
-  </si>
-  <si>
-    <t>s22</t>
-  </si>
-  <si>
-    <t>s23</t>
-  </si>
-  <si>
-    <t>s24</t>
-  </si>
-  <si>
-    <t>s25</t>
-  </si>
-  <si>
-    <t>s26</t>
-  </si>
-  <si>
-    <t>s27</t>
-  </si>
-  <si>
-    <t>s28</t>
-  </si>
-  <si>
-    <t>s29</t>
-  </si>
-  <si>
-    <t>s30</t>
-  </si>
-  <si>
-    <t>s31</t>
-  </si>
-  <si>
-    <t>s32</t>
-  </si>
-  <si>
-    <t>s33</t>
-  </si>
-  <si>
-    <t>s34</t>
-  </si>
-  <si>
-    <t>s35</t>
-  </si>
-  <si>
-    <t>s36</t>
-  </si>
-  <si>
-    <t>s37</t>
-  </si>
-  <si>
-    <t>s38</t>
-  </si>
-  <si>
-    <t>s39</t>
-  </si>
-  <si>
-    <t>s40</t>
-  </si>
-  <si>
-    <t>s41</t>
-  </si>
-  <si>
-    <t>s42</t>
-  </si>
-  <si>
-    <t>s43</t>
-  </si>
-  <si>
-    <t>s44</t>
-  </si>
-  <si>
-    <t>s45</t>
-  </si>
-  <si>
-    <t>s46</t>
-  </si>
-  <si>
     <t>c2</t>
   </si>
   <si>
@@ -2591,102 +2495,6 @@
   </si>
   <si>
     <t>c12</t>
-  </si>
-  <si>
-    <t>c13</t>
-  </si>
-  <si>
-    <t>c14</t>
-  </si>
-  <si>
-    <t>c15</t>
-  </si>
-  <si>
-    <t>c16</t>
-  </si>
-  <si>
-    <t>c17</t>
-  </si>
-  <si>
-    <t>c18</t>
-  </si>
-  <si>
-    <t>c19</t>
-  </si>
-  <si>
-    <t>c20</t>
-  </si>
-  <si>
-    <t>c21</t>
-  </si>
-  <si>
-    <t>c22</t>
-  </si>
-  <si>
-    <t>c23</t>
-  </si>
-  <si>
-    <t>c24</t>
-  </si>
-  <si>
-    <t>c25</t>
-  </si>
-  <si>
-    <t>c26</t>
-  </si>
-  <si>
-    <t>c27</t>
-  </si>
-  <si>
-    <t>c28</t>
-  </si>
-  <si>
-    <t>c29</t>
-  </si>
-  <si>
-    <t>c30</t>
-  </si>
-  <si>
-    <t>c31</t>
-  </si>
-  <si>
-    <t>c32</t>
-  </si>
-  <si>
-    <t>c33</t>
-  </si>
-  <si>
-    <t>c34</t>
-  </si>
-  <si>
-    <t>c35</t>
-  </si>
-  <si>
-    <t>c36</t>
-  </si>
-  <si>
-    <t>c37</t>
-  </si>
-  <si>
-    <t>c38</t>
-  </si>
-  <si>
-    <t>c39</t>
-  </si>
-  <si>
-    <t>c40</t>
-  </si>
-  <si>
-    <t>c41</t>
-  </si>
-  <si>
-    <t>c42</t>
-  </si>
-  <si>
-    <t>c43</t>
-  </si>
-  <si>
-    <t>c44</t>
   </si>
   <si>
     <t>plate1</t>
@@ -3801,6 +3609,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3836,34 +3672,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -4781,8 +4589,8 @@
   </sheetPr>
   <dimension ref="A1:AMM395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J13" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1"/>
@@ -11071,38 +10879,38 @@
       <c r="AJ8" s="39"/>
     </row>
     <row r="9" spans="1:1026" s="45" customFormat="1" ht="22" customHeight="1" outlineLevel="1">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="178" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="171"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="179"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="179"/>
+      <c r="G9" s="179"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="179"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="180"/>
       <c r="N9" s="41"/>
-      <c r="O9" s="173" t="s">
+      <c r="O9" s="182" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="173"/>
+      <c r="P9" s="182"/>
       <c r="Q9" s="133"/>
-      <c r="R9" s="175" t="s">
+      <c r="R9" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="S9" s="176"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="177"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="185"/>
+      <c r="U9" s="186"/>
       <c r="V9" s="42"/>
-      <c r="W9" s="174" t="s">
+      <c r="W9" s="183" t="s">
         <v>517</v>
       </c>
-      <c r="X9" s="174"/>
+      <c r="X9" s="183"/>
       <c r="Y9" s="42"/>
       <c r="Z9" s="43" t="s">
         <v>24</v>
@@ -11112,17 +10920,17 @@
         <v>25</v>
       </c>
       <c r="AC9" s="44"/>
-      <c r="AD9" s="172" t="s">
+      <c r="AD9" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="AE9" s="172"/>
-      <c r="AF9" s="172"/>
+      <c r="AE9" s="181"/>
+      <c r="AF9" s="181"/>
       <c r="AG9" s="42"/>
-      <c r="AH9" s="166" t="s">
+      <c r="AH9" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="AI9" s="167"/>
-      <c r="AJ9" s="168"/>
+      <c r="AI9" s="176"/>
+      <c r="AJ9" s="177"/>
     </row>
     <row r="10" spans="1:1026" ht="13" hidden="1" customHeight="1">
       <c r="A10" s="46" t="s">
@@ -12451,7 +12259,7 @@
       <c r="H15" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="181" t="s">
+      <c r="I15" s="169" t="s">
         <v>162</v>
       </c>
       <c r="J15" s="104" t="s">
@@ -12468,24 +12276,16 @@
       </c>
       <c r="N15" s="87"/>
       <c r="O15" s="88" t="s">
-        <v>653</v>
+        <v>589</v>
       </c>
       <c r="P15" s="107" t="s">
         <v>96</v>
       </c>
       <c r="Q15" s="54"/>
-      <c r="R15" s="181" t="s">
-        <v>97</v>
-      </c>
-      <c r="S15" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="T15" s="82" t="s">
-        <v>565</v>
-      </c>
-      <c r="U15" s="89" t="s">
-        <v>566</v>
-      </c>
+      <c r="R15" s="169"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="82"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="90"/>
       <c r="W15" s="82" t="s">
         <v>563</v>
@@ -12495,10 +12295,10 @@
       </c>
       <c r="Y15" s="90"/>
       <c r="Z15" s="109" t="s">
-        <v>654</v>
+        <v>590</v>
       </c>
       <c r="AA15" s="92"/>
-      <c r="AB15" s="181" t="s">
+      <c r="AB15" s="169" t="s">
         <v>122</v>
       </c>
       <c r="AC15" s="92"/>
@@ -12513,13 +12313,13 @@
       </c>
       <c r="AG15" s="61"/>
       <c r="AH15" s="88" t="s">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="AI15" s="110">
         <v>5</v>
       </c>
-      <c r="AJ15" s="184" t="s">
-        <v>655</v>
+      <c r="AJ15" s="172" t="s">
+        <v>591</v>
       </c>
       <c r="AK15"/>
       <c r="AL15"/>
@@ -13537,7 +13337,7 @@
       <c r="H16" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="182" t="s">
+      <c r="I16" s="170" t="s">
         <v>104</v>
       </c>
       <c r="J16" s="104" t="s">
@@ -13556,12 +13356,8 @@
       <c r="O16" s="88"/>
       <c r="P16" s="107"/>
       <c r="Q16" s="54"/>
-      <c r="R16" s="181" t="s">
-        <v>109</v>
-      </c>
-      <c r="S16" s="138" t="s">
-        <v>106</v>
-      </c>
+      <c r="R16" s="169"/>
+      <c r="S16" s="138"/>
       <c r="T16" s="93"/>
       <c r="U16" s="94"/>
       <c r="V16" s="90"/>
@@ -14595,7 +14391,7 @@
       <c r="H17" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="181" t="s">
+      <c r="I17" s="169" t="s">
         <v>114</v>
       </c>
       <c r="J17" s="104" t="s">
@@ -14614,12 +14410,8 @@
       <c r="O17" s="88"/>
       <c r="P17" s="107"/>
       <c r="Q17" s="54"/>
-      <c r="R17" s="181" t="s">
-        <v>118</v>
-      </c>
-      <c r="S17" s="138" t="s">
-        <v>112</v>
-      </c>
+      <c r="R17" s="169"/>
+      <c r="S17" s="138"/>
       <c r="T17" s="93"/>
       <c r="U17" s="94"/>
       <c r="V17" s="90"/>
@@ -15645,7 +15437,7 @@
         <v>262</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>610</v>
+        <v>578</v>
       </c>
       <c r="G18" s="85" t="s">
         <v>112</v>
@@ -15653,7 +15445,7 @@
       <c r="H18" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I18" s="182" t="s">
+      <c r="I18" s="170" t="s">
         <v>120</v>
       </c>
       <c r="J18" s="104" t="s">
@@ -15672,9 +15464,7 @@
       <c r="O18" s="88"/>
       <c r="P18" s="107"/>
       <c r="Q18" s="54"/>
-      <c r="R18" s="181" t="s">
-        <v>124</v>
-      </c>
+      <c r="R18" s="169"/>
       <c r="S18" s="138"/>
       <c r="T18" s="93"/>
       <c r="U18" s="94"/>
@@ -16701,7 +16491,7 @@
         <v>266</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>611</v>
+        <v>579</v>
       </c>
       <c r="G19" s="85" t="s">
         <v>112</v>
@@ -16709,7 +16499,7 @@
       <c r="H19" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="181" t="s">
+      <c r="I19" s="169" t="s">
         <v>126</v>
       </c>
       <c r="J19" s="104" t="s">
@@ -16728,9 +16518,7 @@
       <c r="O19" s="88"/>
       <c r="P19" s="107"/>
       <c r="Q19" s="54"/>
-      <c r="R19" s="181" t="s">
-        <v>129</v>
-      </c>
+      <c r="R19" s="169"/>
       <c r="S19" s="138"/>
       <c r="T19" s="93"/>
       <c r="U19" s="94"/>
@@ -17757,7 +17545,7 @@
         <v>392</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="G20" s="85" t="s">
         <v>112</v>
@@ -17765,7 +17553,7 @@
       <c r="H20" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="183" t="s">
+      <c r="I20" s="171" t="s">
         <v>132</v>
       </c>
       <c r="J20" s="104" t="s">
@@ -17784,9 +17572,7 @@
       <c r="O20" s="88"/>
       <c r="P20" s="107"/>
       <c r="Q20" s="54"/>
-      <c r="R20" s="181" t="s">
-        <v>134</v>
-      </c>
+      <c r="R20" s="169"/>
       <c r="S20" s="138"/>
       <c r="T20" s="93"/>
       <c r="U20" s="94"/>
@@ -18813,7 +18599,7 @@
         <v>270</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="G21" s="85" t="s">
         <v>112</v>
@@ -18821,7 +18607,7 @@
       <c r="H21" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="183" t="s">
+      <c r="I21" s="171" t="s">
         <v>137</v>
       </c>
       <c r="J21" s="104" t="s">
@@ -18840,9 +18626,7 @@
       <c r="O21" s="88"/>
       <c r="P21" s="107"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="181" t="s">
-        <v>139</v>
-      </c>
+      <c r="R21" s="169"/>
       <c r="S21" s="138"/>
       <c r="T21" s="93"/>
       <c r="U21" s="94"/>
@@ -19865,11 +19649,11 @@
       <c r="D22" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="E22" s="178" t="s">
+      <c r="E22" s="166" t="s">
         <v>394</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="G22" s="85" t="s">
         <v>112</v>
@@ -19877,7 +19661,7 @@
       <c r="H22" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="181" t="s">
+      <c r="I22" s="169" t="s">
         <v>142</v>
       </c>
       <c r="J22" s="104" t="s">
@@ -19896,9 +19680,7 @@
       <c r="O22" s="88"/>
       <c r="P22" s="107"/>
       <c r="Q22" s="54"/>
-      <c r="R22" s="181" t="s">
-        <v>144</v>
-      </c>
+      <c r="R22" s="169"/>
       <c r="S22" s="138"/>
       <c r="T22" s="93"/>
       <c r="U22" s="94"/>
@@ -20921,11 +20703,11 @@
       <c r="D23" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="E23" s="178" t="s">
+      <c r="E23" s="166" t="s">
         <v>396</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="G23" s="85" t="s">
         <v>112</v>
@@ -20933,7 +20715,7 @@
       <c r="H23" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="181" t="s">
+      <c r="I23" s="169" t="s">
         <v>147</v>
       </c>
       <c r="J23" s="104" t="s">
@@ -20952,9 +20734,7 @@
       <c r="O23" s="88"/>
       <c r="P23" s="107"/>
       <c r="Q23" s="54"/>
-      <c r="R23" s="181" t="s">
-        <v>149</v>
-      </c>
+      <c r="R23" s="169"/>
       <c r="S23" s="138"/>
       <c r="T23" s="93"/>
       <c r="U23" s="94"/>
@@ -21977,11 +21757,11 @@
       <c r="D24" s="84" t="s">
         <v>549</v>
       </c>
-      <c r="E24" s="178" t="s">
+      <c r="E24" s="166" t="s">
         <v>395</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="G24" s="85" t="s">
         <v>112</v>
@@ -21989,7 +21769,7 @@
       <c r="H24" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="181" t="s">
+      <c r="I24" s="169" t="s">
         <v>152</v>
       </c>
       <c r="J24" s="104" t="s">
@@ -22008,9 +21788,7 @@
       <c r="O24" s="88"/>
       <c r="P24" s="107"/>
       <c r="Q24" s="54"/>
-      <c r="R24" s="181" t="s">
-        <v>154</v>
-      </c>
+      <c r="R24" s="169"/>
       <c r="S24" s="138"/>
       <c r="T24" s="93"/>
       <c r="U24" s="94"/>
@@ -23037,7 +22815,7 @@
         <v>254</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="G25" s="85" t="s">
         <v>112</v>
@@ -23045,7 +22823,7 @@
       <c r="H25" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="181" t="s">
+      <c r="I25" s="169" t="s">
         <v>157</v>
       </c>
       <c r="J25" s="104" t="s">
@@ -23064,9 +22842,7 @@
       <c r="O25" s="88"/>
       <c r="P25" s="107"/>
       <c r="Q25" s="54"/>
-      <c r="R25" s="181" t="s">
-        <v>159</v>
-      </c>
+      <c r="R25" s="169"/>
       <c r="S25" s="138"/>
       <c r="T25" s="93"/>
       <c r="U25" s="94"/>
@@ -24093,7 +23869,7 @@
         <v>393</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="G26" s="85" t="s">
         <v>112</v>
@@ -24101,7 +23877,7 @@
       <c r="H26" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="181" t="s">
+      <c r="I26" s="169" t="s">
         <v>92</v>
       </c>
       <c r="J26" s="104" t="s">
@@ -24120,9 +23896,7 @@
       <c r="O26" s="88"/>
       <c r="P26" s="107"/>
       <c r="Q26" s="54"/>
-      <c r="R26" s="181" t="s">
-        <v>164</v>
-      </c>
+      <c r="R26" s="169"/>
       <c r="S26" s="138"/>
       <c r="T26" s="93"/>
       <c r="U26" s="94"/>
@@ -25149,7 +24923,7 @@
         <v>258</v>
       </c>
       <c r="F27" s="82" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="G27" s="85" t="s">
         <v>112</v>
@@ -25157,7 +24931,7 @@
       <c r="H27" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I27" s="181" t="s">
+      <c r="I27" s="169" t="s">
         <v>167</v>
       </c>
       <c r="J27" s="104" t="s">
@@ -25176,9 +24950,7 @@
       <c r="O27" s="88"/>
       <c r="P27" s="107"/>
       <c r="Q27" s="54"/>
-      <c r="R27" s="181" t="s">
-        <v>169</v>
-      </c>
+      <c r="R27" s="169"/>
       <c r="S27" s="138"/>
       <c r="T27" s="93"/>
       <c r="U27" s="94"/>
@@ -25215,7 +24987,7 @@
         <v>262</v>
       </c>
       <c r="F28" s="82" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="G28" s="85" t="s">
         <v>112</v>
@@ -25223,7 +24995,7 @@
       <c r="H28" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="I28" s="181" t="s">
+      <c r="I28" s="169" t="s">
         <v>172</v>
       </c>
       <c r="J28" s="104" t="s">
@@ -25242,9 +25014,7 @@
       <c r="O28" s="88"/>
       <c r="P28" s="107"/>
       <c r="Q28" s="54"/>
-      <c r="R28" s="181" t="s">
-        <v>174</v>
-      </c>
+      <c r="R28" s="169"/>
       <c r="S28" s="138"/>
       <c r="T28" s="93"/>
       <c r="U28" s="94"/>
@@ -26255,50 +26025,24 @@
       <c r="AML28"/>
     </row>
     <row r="29" spans="1:1026" ht="25" customHeight="1">
-      <c r="A29" s="82" t="s">
-        <v>578</v>
-      </c>
-      <c r="B29" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D29" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="F29" s="82" t="s">
-        <v>621</v>
-      </c>
-      <c r="G29" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="179"/>
-      <c r="J29" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K29" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="105">
-        <v>1</v>
-      </c>
-      <c r="M29" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="A29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="106"/>
       <c r="N29" s="87"/>
       <c r="O29" s="88"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="54"/>
-      <c r="R29" s="181" t="s">
-        <v>178</v>
-      </c>
+      <c r="R29" s="169"/>
       <c r="S29" s="138"/>
       <c r="T29" s="93"/>
       <c r="U29" s="94"/>
@@ -26308,9 +26052,7 @@
       <c r="Y29" s="90"/>
       <c r="Z29" s="109"/>
       <c r="AA29" s="92"/>
-      <c r="AB29" s="181" t="s">
-        <v>95</v>
-      </c>
+      <c r="AB29" s="169"/>
       <c r="AC29" s="92"/>
       <c r="AD29" s="112"/>
       <c r="AE29" s="112"/>
@@ -27311,50 +27053,24 @@
       <c r="AML29"/>
     </row>
     <row r="30" spans="1:1026" ht="25" customHeight="1">
-      <c r="A30" s="82" t="s">
-        <v>579</v>
-      </c>
-      <c r="B30" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D30" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="F30" s="82" t="s">
-        <v>622</v>
-      </c>
-      <c r="G30" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H30" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A30" s="82"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="86"/>
       <c r="I30" s="103"/>
-      <c r="J30" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L30" s="105">
-        <v>1</v>
-      </c>
-      <c r="M30" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J30" s="104"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="106"/>
       <c r="N30" s="87"/>
       <c r="O30" s="88"/>
       <c r="P30" s="107"/>
       <c r="Q30" s="54"/>
-      <c r="R30" s="181" t="s">
-        <v>182</v>
-      </c>
+      <c r="R30" s="169"/>
       <c r="S30" s="138"/>
       <c r="T30" s="93"/>
       <c r="U30" s="94"/>
@@ -27364,9 +27080,7 @@
       <c r="Y30" s="90"/>
       <c r="Z30" s="109"/>
       <c r="AA30" s="92"/>
-      <c r="AB30" s="181" t="s">
-        <v>107</v>
-      </c>
+      <c r="AB30" s="169"/>
       <c r="AC30" s="92"/>
       <c r="AD30" s="112"/>
       <c r="AE30" s="112"/>
@@ -28367,50 +28081,24 @@
       <c r="AML30"/>
     </row>
     <row r="31" spans="1:1026" ht="25" customHeight="1">
-      <c r="A31" s="82" t="s">
-        <v>580</v>
-      </c>
-      <c r="B31" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E31" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="F31" s="82" t="s">
-        <v>623</v>
-      </c>
-      <c r="G31" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H31" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A31" s="82"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="86"/>
       <c r="I31" s="103"/>
-      <c r="J31" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K31" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L31" s="105">
-        <v>1</v>
-      </c>
-      <c r="M31" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J31" s="104"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="106"/>
       <c r="N31" s="87"/>
       <c r="O31" s="88"/>
       <c r="P31" s="107"/>
       <c r="Q31" s="54"/>
-      <c r="R31" s="181" t="s">
-        <v>186</v>
-      </c>
+      <c r="R31" s="169"/>
       <c r="S31" s="138"/>
       <c r="T31" s="93"/>
       <c r="U31" s="94"/>
@@ -28420,9 +28108,7 @@
       <c r="Y31" s="90"/>
       <c r="Z31" s="109"/>
       <c r="AA31" s="92"/>
-      <c r="AB31" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB31" s="91"/>
       <c r="AC31" s="92"/>
       <c r="AD31" s="112"/>
       <c r="AE31" s="112"/>
@@ -29423,50 +29109,24 @@
       <c r="AML31"/>
     </row>
     <row r="32" spans="1:1026" ht="25" customHeight="1">
-      <c r="A32" s="82" t="s">
-        <v>581</v>
-      </c>
-      <c r="B32" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D32" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E32" s="178" t="s">
-        <v>394</v>
-      </c>
-      <c r="F32" s="82" t="s">
-        <v>624</v>
-      </c>
-      <c r="G32" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H32" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A32" s="82"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="103"/>
-      <c r="J32" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K32" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L32" s="105">
-        <v>1</v>
-      </c>
-      <c r="M32" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J32" s="104"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="106"/>
       <c r="N32" s="87"/>
       <c r="O32" s="88"/>
       <c r="P32" s="107"/>
       <c r="Q32" s="54"/>
-      <c r="R32" s="181" t="s">
-        <v>190</v>
-      </c>
+      <c r="R32" s="169"/>
       <c r="S32" s="138"/>
       <c r="T32" s="93"/>
       <c r="U32" s="94"/>
@@ -29476,9 +29136,7 @@
       <c r="Y32" s="90"/>
       <c r="Z32" s="109"/>
       <c r="AA32" s="92"/>
-      <c r="AB32" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB32" s="91"/>
       <c r="AC32" s="92"/>
       <c r="AD32" s="112"/>
       <c r="AE32" s="112"/>
@@ -30479,50 +30137,24 @@
       <c r="AML32"/>
     </row>
     <row r="33" spans="1:1026" ht="25" customHeight="1">
-      <c r="A33" s="82" t="s">
-        <v>582</v>
-      </c>
-      <c r="B33" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D33" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E33" s="178" t="s">
-        <v>396</v>
-      </c>
-      <c r="F33" s="82" t="s">
-        <v>625</v>
-      </c>
-      <c r="G33" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A33" s="82"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
       <c r="I33" s="103"/>
-      <c r="J33" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K33" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L33" s="105">
-        <v>1</v>
-      </c>
-      <c r="M33" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J33" s="104"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="106"/>
       <c r="N33" s="87"/>
       <c r="O33" s="88"/>
       <c r="P33" s="107"/>
       <c r="Q33" s="54"/>
-      <c r="R33" s="181" t="s">
-        <v>194</v>
-      </c>
+      <c r="R33" s="169"/>
       <c r="S33" s="138"/>
       <c r="T33" s="93"/>
       <c r="U33" s="94"/>
@@ -30532,9 +30164,7 @@
       <c r="Y33" s="90"/>
       <c r="Z33" s="109"/>
       <c r="AA33" s="92"/>
-      <c r="AB33" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB33" s="91"/>
       <c r="AC33" s="92"/>
       <c r="AD33" s="112"/>
       <c r="AE33" s="112"/>
@@ -31535,50 +31165,24 @@
       <c r="AML33"/>
     </row>
     <row r="34" spans="1:1026" ht="25" customHeight="1">
-      <c r="A34" s="82" t="s">
-        <v>583</v>
-      </c>
-      <c r="B34" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D34" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E34" s="178" t="s">
-        <v>395</v>
-      </c>
-      <c r="F34" s="82" t="s">
-        <v>626</v>
-      </c>
-      <c r="G34" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A34" s="82"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
       <c r="I34" s="103"/>
-      <c r="J34" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K34" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L34" s="105">
-        <v>1</v>
-      </c>
-      <c r="M34" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J34" s="104"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="106"/>
       <c r="N34" s="87"/>
       <c r="O34" s="88"/>
       <c r="P34" s="107"/>
       <c r="Q34" s="54"/>
-      <c r="R34" s="181" t="s">
-        <v>198</v>
-      </c>
+      <c r="R34" s="169"/>
       <c r="S34" s="138"/>
       <c r="T34" s="93"/>
       <c r="U34" s="94"/>
@@ -31588,9 +31192,7 @@
       <c r="Y34" s="90"/>
       <c r="Z34" s="109"/>
       <c r="AA34" s="92"/>
-      <c r="AB34" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB34" s="91"/>
       <c r="AC34" s="92"/>
       <c r="AD34" s="112"/>
       <c r="AE34" s="112"/>
@@ -32591,50 +32193,24 @@
       <c r="AML34"/>
     </row>
     <row r="35" spans="1:1026" ht="25" customHeight="1">
-      <c r="A35" s="82" t="s">
-        <v>584</v>
-      </c>
-      <c r="B35" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D35" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E35" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="F35" s="82" t="s">
-        <v>627</v>
-      </c>
-      <c r="G35" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A35" s="82"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="86"/>
       <c r="I35" s="103"/>
-      <c r="J35" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K35" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L35" s="105">
-        <v>1</v>
-      </c>
-      <c r="M35" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J35" s="104"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="106"/>
       <c r="N35" s="87"/>
       <c r="O35" s="88"/>
       <c r="P35" s="107"/>
       <c r="Q35" s="54"/>
-      <c r="R35" s="181" t="s">
-        <v>202</v>
-      </c>
+      <c r="R35" s="169"/>
       <c r="S35" s="138"/>
       <c r="T35" s="93"/>
       <c r="U35" s="94"/>
@@ -32644,9 +32220,7 @@
       <c r="Y35" s="90"/>
       <c r="Z35" s="109"/>
       <c r="AA35" s="92"/>
-      <c r="AB35" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB35" s="91"/>
       <c r="AC35" s="92"/>
       <c r="AD35" s="112"/>
       <c r="AE35" s="112"/>
@@ -33647,50 +33221,24 @@
       <c r="AML35"/>
     </row>
     <row r="36" spans="1:1026" s="97" customFormat="1" ht="25" customHeight="1">
-      <c r="A36" s="82" t="s">
-        <v>585</v>
-      </c>
-      <c r="B36" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E36" s="84" t="s">
-        <v>393</v>
-      </c>
-      <c r="F36" s="82" t="s">
-        <v>628</v>
-      </c>
-      <c r="G36" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A36" s="82"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="86"/>
       <c r="I36" s="103"/>
-      <c r="J36" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K36" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L36" s="105">
-        <v>1</v>
-      </c>
-      <c r="M36" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J36" s="104"/>
+      <c r="K36" s="105"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="106"/>
       <c r="N36" s="87"/>
       <c r="O36" s="88"/>
       <c r="P36" s="107"/>
       <c r="Q36" s="54"/>
-      <c r="R36" s="181" t="s">
-        <v>206</v>
-      </c>
+      <c r="R36" s="169"/>
       <c r="S36" s="138"/>
       <c r="T36" s="93"/>
       <c r="U36" s="94"/>
@@ -33700,9 +33248,7 @@
       <c r="Y36" s="90"/>
       <c r="Z36" s="109"/>
       <c r="AA36" s="92"/>
-      <c r="AB36" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB36" s="91"/>
       <c r="AC36" s="92"/>
       <c r="AD36" s="112"/>
       <c r="AE36" s="112"/>
@@ -33713,50 +33259,24 @@
       <c r="AJ36" s="88"/>
     </row>
     <row r="37" spans="1:1026" s="97" customFormat="1" ht="25" customHeight="1">
-      <c r="A37" s="82" t="s">
-        <v>586</v>
-      </c>
-      <c r="B37" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D37" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E37" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="82" t="s">
-        <v>629</v>
-      </c>
-      <c r="G37" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="86"/>
       <c r="I37" s="103"/>
-      <c r="J37" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K37" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" s="105">
-        <v>1</v>
-      </c>
-      <c r="M37" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J37" s="104"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="106"/>
       <c r="N37" s="87"/>
       <c r="O37" s="88"/>
       <c r="P37" s="107"/>
       <c r="Q37" s="54"/>
-      <c r="R37" s="185" t="s">
-        <v>541</v>
-      </c>
+      <c r="R37" s="173"/>
       <c r="S37" s="138"/>
       <c r="T37" s="93"/>
       <c r="U37" s="94"/>
@@ -33766,9 +33286,7 @@
       <c r="Y37" s="90"/>
       <c r="Z37" s="109"/>
       <c r="AA37" s="92"/>
-      <c r="AB37" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB37" s="91"/>
       <c r="AC37" s="92"/>
       <c r="AD37" s="112"/>
       <c r="AE37" s="112"/>
@@ -33779,50 +33297,24 @@
       <c r="AJ37" s="88"/>
     </row>
     <row r="38" spans="1:1026" s="97" customFormat="1" ht="25" customHeight="1">
-      <c r="A38" s="82" t="s">
-        <v>587</v>
-      </c>
-      <c r="B38" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D38" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>262</v>
-      </c>
-      <c r="F38" s="82" t="s">
-        <v>630</v>
-      </c>
-      <c r="G38" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A38" s="82"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="86"/>
       <c r="I38" s="103"/>
-      <c r="J38" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K38" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L38" s="105">
-        <v>1</v>
-      </c>
-      <c r="M38" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J38" s="104"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="106"/>
       <c r="N38" s="87"/>
       <c r="O38" s="88"/>
       <c r="P38" s="107"/>
       <c r="Q38" s="54"/>
-      <c r="R38" s="181" t="s">
-        <v>210</v>
-      </c>
+      <c r="R38" s="169"/>
       <c r="S38" s="138"/>
       <c r="T38" s="93"/>
       <c r="U38" s="94"/>
@@ -33832,9 +33324,7 @@
       <c r="Y38" s="90"/>
       <c r="Z38" s="109"/>
       <c r="AA38" s="92"/>
-      <c r="AB38" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB38" s="91"/>
       <c r="AC38" s="92"/>
       <c r="AD38" s="112"/>
       <c r="AE38" s="112"/>
@@ -33845,50 +33335,24 @@
       <c r="AJ38" s="88"/>
     </row>
     <row r="39" spans="1:1026" ht="25" customHeight="1">
-      <c r="A39" s="82" t="s">
-        <v>588</v>
-      </c>
-      <c r="B39" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D39" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E39" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="F39" s="82" t="s">
-        <v>631</v>
-      </c>
-      <c r="G39" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A39" s="82"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="86"/>
       <c r="I39" s="103"/>
-      <c r="J39" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K39" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L39" s="105">
-        <v>1</v>
-      </c>
-      <c r="M39" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J39" s="104"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="106"/>
       <c r="N39" s="87"/>
       <c r="O39" s="88"/>
       <c r="P39" s="107"/>
       <c r="Q39" s="54"/>
-      <c r="R39" s="181" t="s">
-        <v>214</v>
-      </c>
+      <c r="R39" s="169"/>
       <c r="S39" s="138"/>
       <c r="T39" s="93"/>
       <c r="U39" s="94"/>
@@ -33898,9 +33362,7 @@
       <c r="Y39" s="90"/>
       <c r="Z39" s="109"/>
       <c r="AA39" s="92"/>
-      <c r="AB39" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB39" s="91"/>
       <c r="AC39" s="92"/>
       <c r="AD39" s="112"/>
       <c r="AE39" s="112"/>
@@ -34901,50 +34363,24 @@
       <c r="AML39"/>
     </row>
     <row r="40" spans="1:1026" ht="25" customHeight="1">
-      <c r="A40" s="82" t="s">
-        <v>589</v>
-      </c>
-      <c r="B40" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D40" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E40" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="F40" s="82" t="s">
-        <v>632</v>
-      </c>
-      <c r="G40" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A40" s="82"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="86"/>
       <c r="I40" s="103"/>
-      <c r="J40" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K40" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L40" s="105">
-        <v>1</v>
-      </c>
-      <c r="M40" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J40" s="104"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="106"/>
       <c r="N40" s="87"/>
       <c r="O40" s="88"/>
       <c r="P40" s="107"/>
       <c r="Q40" s="54"/>
-      <c r="R40" s="181" t="s">
-        <v>218</v>
-      </c>
+      <c r="R40" s="169"/>
       <c r="S40" s="138"/>
       <c r="T40" s="93"/>
       <c r="U40" s="94"/>
@@ -34954,9 +34390,7 @@
       <c r="Y40" s="90"/>
       <c r="Z40" s="109"/>
       <c r="AA40" s="92"/>
-      <c r="AB40" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB40" s="91"/>
       <c r="AC40" s="92"/>
       <c r="AD40" s="112"/>
       <c r="AE40" s="112"/>
@@ -35957,50 +35391,24 @@
       <c r="AML40"/>
     </row>
     <row r="41" spans="1:1026" ht="25" customHeight="1">
-      <c r="A41" s="82" t="s">
-        <v>590</v>
-      </c>
-      <c r="B41" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D41" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E41" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41" s="82" t="s">
-        <v>633</v>
-      </c>
-      <c r="G41" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A41" s="82"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="86"/>
       <c r="I41" s="103"/>
-      <c r="J41" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K41" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L41" s="105">
-        <v>1</v>
-      </c>
-      <c r="M41" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J41" s="104"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="106"/>
       <c r="N41" s="87"/>
       <c r="O41" s="88"/>
       <c r="P41" s="107"/>
       <c r="Q41" s="54"/>
-      <c r="R41" s="181" t="s">
-        <v>225</v>
-      </c>
+      <c r="R41" s="169"/>
       <c r="S41" s="138"/>
       <c r="T41" s="93"/>
       <c r="U41" s="94"/>
@@ -36010,9 +35418,7 @@
       <c r="Y41" s="90"/>
       <c r="Z41" s="109"/>
       <c r="AA41" s="92"/>
-      <c r="AB41" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB41" s="91"/>
       <c r="AC41" s="92"/>
       <c r="AD41" s="112"/>
       <c r="AE41" s="112"/>
@@ -37013,50 +36419,24 @@
       <c r="AML41"/>
     </row>
     <row r="42" spans="1:1026" ht="25" customHeight="1">
-      <c r="A42" s="82" t="s">
-        <v>591</v>
-      </c>
-      <c r="B42" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D42" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E42" s="178" t="s">
-        <v>394</v>
-      </c>
-      <c r="F42" s="82" t="s">
-        <v>634</v>
-      </c>
-      <c r="G42" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A42" s="82"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="86"/>
       <c r="I42" s="103"/>
-      <c r="J42" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K42" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L42" s="105">
-        <v>1</v>
-      </c>
-      <c r="M42" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J42" s="104"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="106"/>
       <c r="N42" s="87"/>
       <c r="O42" s="88"/>
       <c r="P42" s="107"/>
       <c r="Q42" s="54"/>
-      <c r="R42" s="181" t="s">
-        <v>229</v>
-      </c>
+      <c r="R42" s="169"/>
       <c r="S42" s="138"/>
       <c r="T42" s="93"/>
       <c r="U42" s="94"/>
@@ -37066,9 +36446,7 @@
       <c r="Y42" s="90"/>
       <c r="Z42" s="109"/>
       <c r="AA42" s="92"/>
-      <c r="AB42" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB42" s="91"/>
       <c r="AC42" s="92"/>
       <c r="AD42" s="112"/>
       <c r="AE42" s="112"/>
@@ -38069,50 +37447,24 @@
       <c r="AML42"/>
     </row>
     <row r="43" spans="1:1026" ht="25" customHeight="1">
-      <c r="A43" s="82" t="s">
-        <v>592</v>
-      </c>
-      <c r="B43" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D43" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E43" s="178" t="s">
-        <v>396</v>
-      </c>
-      <c r="F43" s="82" t="s">
-        <v>635</v>
-      </c>
-      <c r="G43" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="86"/>
       <c r="I43" s="103"/>
-      <c r="J43" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K43" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L43" s="105">
-        <v>1</v>
-      </c>
-      <c r="M43" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J43" s="104"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="106"/>
       <c r="N43" s="87"/>
       <c r="O43" s="88"/>
       <c r="P43" s="107"/>
       <c r="Q43" s="54"/>
-      <c r="R43" s="181" t="s">
-        <v>233</v>
-      </c>
+      <c r="R43" s="169"/>
       <c r="S43" s="138"/>
       <c r="T43" s="93"/>
       <c r="U43" s="94"/>
@@ -38122,9 +37474,7 @@
       <c r="Y43" s="90"/>
       <c r="Z43" s="109"/>
       <c r="AA43" s="92"/>
-      <c r="AB43" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB43" s="91"/>
       <c r="AC43" s="92"/>
       <c r="AD43" s="112"/>
       <c r="AE43" s="112"/>
@@ -39125,50 +38475,24 @@
       <c r="AML43"/>
     </row>
     <row r="44" spans="1:1026" ht="25" customHeight="1">
-      <c r="A44" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="B44" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D44" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E44" s="178" t="s">
-        <v>395</v>
-      </c>
-      <c r="F44" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="G44" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="86"/>
       <c r="I44" s="103"/>
-      <c r="J44" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K44" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L44" s="105">
-        <v>1</v>
-      </c>
-      <c r="M44" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J44" s="104"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="106"/>
       <c r="N44" s="87"/>
       <c r="O44" s="88"/>
       <c r="P44" s="107"/>
       <c r="Q44" s="54"/>
-      <c r="R44" s="181" t="s">
-        <v>237</v>
-      </c>
+      <c r="R44" s="169"/>
       <c r="S44" s="138"/>
       <c r="T44" s="93"/>
       <c r="U44" s="94"/>
@@ -39178,9 +38502,7 @@
       <c r="Y44" s="90"/>
       <c r="Z44" s="109"/>
       <c r="AA44" s="92"/>
-      <c r="AB44" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB44" s="91"/>
       <c r="AC44" s="92"/>
       <c r="AD44" s="112"/>
       <c r="AE44" s="112"/>
@@ -40181,50 +39503,24 @@
       <c r="AML44"/>
     </row>
     <row r="45" spans="1:1026" ht="25" customHeight="1">
-      <c r="A45" s="82" t="s">
-        <v>594</v>
-      </c>
-      <c r="B45" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D45" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E45" s="84" t="s">
-        <v>254</v>
-      </c>
-      <c r="F45" s="82" t="s">
-        <v>637</v>
-      </c>
-      <c r="G45" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A45" s="82"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="86"/>
       <c r="I45" s="103"/>
-      <c r="J45" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L45" s="105">
-        <v>1</v>
-      </c>
-      <c r="M45" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J45" s="104"/>
+      <c r="K45" s="105"/>
+      <c r="L45" s="105"/>
+      <c r="M45" s="106"/>
       <c r="N45" s="87"/>
       <c r="O45" s="88"/>
       <c r="P45" s="107"/>
       <c r="Q45" s="54"/>
-      <c r="R45" s="181" t="s">
-        <v>241</v>
-      </c>
+      <c r="R45" s="169"/>
       <c r="S45" s="138"/>
       <c r="T45" s="93"/>
       <c r="U45" s="94"/>
@@ -40234,9 +39530,7 @@
       <c r="Y45" s="90"/>
       <c r="Z45" s="109"/>
       <c r="AA45" s="92"/>
-      <c r="AB45" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB45" s="91"/>
       <c r="AC45" s="92"/>
       <c r="AD45" s="112"/>
       <c r="AE45" s="112"/>
@@ -41237,50 +40531,24 @@
       <c r="AML45"/>
     </row>
     <row r="46" spans="1:1026" ht="25" customHeight="1">
-      <c r="A46" s="82" t="s">
-        <v>595</v>
-      </c>
-      <c r="B46" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D46" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E46" s="84" t="s">
-        <v>393</v>
-      </c>
-      <c r="F46" s="82" t="s">
-        <v>638</v>
-      </c>
-      <c r="G46" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A46" s="82"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="86"/>
       <c r="I46" s="103"/>
-      <c r="J46" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K46" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L46" s="105">
-        <v>1</v>
-      </c>
-      <c r="M46" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J46" s="104"/>
+      <c r="K46" s="105"/>
+      <c r="L46" s="105"/>
+      <c r="M46" s="106"/>
       <c r="N46" s="87"/>
       <c r="O46" s="88"/>
       <c r="P46" s="107"/>
       <c r="Q46" s="54"/>
-      <c r="R46" s="181" t="s">
-        <v>245</v>
-      </c>
+      <c r="R46" s="169"/>
       <c r="S46" s="138"/>
       <c r="T46" s="93"/>
       <c r="U46" s="94"/>
@@ -41290,9 +40558,7 @@
       <c r="Y46" s="90"/>
       <c r="Z46" s="109"/>
       <c r="AA46" s="92"/>
-      <c r="AB46" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB46" s="91"/>
       <c r="AC46" s="92"/>
       <c r="AD46" s="112"/>
       <c r="AE46" s="112"/>
@@ -42293,50 +41559,24 @@
       <c r="AML46"/>
     </row>
     <row r="47" spans="1:1026" ht="25" customHeight="1">
-      <c r="A47" s="82" t="s">
-        <v>596</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D47" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E47" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="F47" s="82" t="s">
-        <v>639</v>
-      </c>
-      <c r="G47" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A47" s="82"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="86"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K47" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L47" s="105">
-        <v>1</v>
-      </c>
-      <c r="M47" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J47" s="104"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="106"/>
       <c r="N47" s="87"/>
       <c r="O47" s="88"/>
       <c r="P47" s="107"/>
       <c r="Q47" s="54"/>
-      <c r="R47" s="181" t="s">
-        <v>249</v>
-      </c>
+      <c r="R47" s="169"/>
       <c r="S47" s="138"/>
       <c r="T47" s="93"/>
       <c r="U47" s="94"/>
@@ -42346,9 +41586,7 @@
       <c r="Y47" s="90"/>
       <c r="Z47" s="109"/>
       <c r="AA47" s="92"/>
-      <c r="AB47" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB47" s="91"/>
       <c r="AC47" s="92"/>
       <c r="AD47" s="112"/>
       <c r="AE47" s="112"/>
@@ -43349,50 +42587,24 @@
       <c r="AML47"/>
     </row>
     <row r="48" spans="1:1026" ht="25" customHeight="1">
-      <c r="A48" s="82" t="s">
-        <v>597</v>
-      </c>
-      <c r="B48" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D48" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E48" s="84" t="s">
-        <v>262</v>
-      </c>
-      <c r="F48" s="82" t="s">
-        <v>640</v>
-      </c>
-      <c r="G48" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H48" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="82"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="86"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K48" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L48" s="105">
-        <v>1</v>
-      </c>
-      <c r="M48" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J48" s="104"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="106"/>
       <c r="N48" s="87"/>
       <c r="O48" s="88"/>
       <c r="P48" s="107"/>
       <c r="Q48" s="54"/>
-      <c r="R48" s="181" t="s">
-        <v>253</v>
-      </c>
+      <c r="R48" s="169"/>
       <c r="S48" s="138"/>
       <c r="T48" s="93"/>
       <c r="U48" s="94"/>
@@ -43402,9 +42614,7 @@
       <c r="Y48" s="90"/>
       <c r="Z48" s="109"/>
       <c r="AA48" s="92"/>
-      <c r="AB48" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB48" s="91"/>
       <c r="AC48" s="92"/>
       <c r="AD48" s="112"/>
       <c r="AE48" s="112"/>
@@ -44405,50 +43615,24 @@
       <c r="AML48"/>
     </row>
     <row r="49" spans="1:1026" ht="25" customHeight="1">
-      <c r="A49" s="82" t="s">
-        <v>598</v>
-      </c>
-      <c r="B49" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D49" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E49" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="F49" s="82" t="s">
-        <v>641</v>
-      </c>
-      <c r="G49" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A49" s="82"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="86"/>
       <c r="I49" s="103"/>
-      <c r="J49" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K49" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L49" s="105">
-        <v>1</v>
-      </c>
-      <c r="M49" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J49" s="104"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="106"/>
       <c r="N49" s="87"/>
       <c r="O49" s="88"/>
       <c r="P49" s="107"/>
       <c r="Q49" s="54"/>
-      <c r="R49" s="181" t="s">
-        <v>257</v>
-      </c>
+      <c r="R49" s="169"/>
       <c r="S49" s="138"/>
       <c r="T49" s="93"/>
       <c r="U49" s="94"/>
@@ -44458,9 +43642,7 @@
       <c r="Y49" s="90"/>
       <c r="Z49" s="109"/>
       <c r="AA49" s="92"/>
-      <c r="AB49" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB49" s="91"/>
       <c r="AC49" s="92"/>
       <c r="AD49" s="112"/>
       <c r="AE49" s="112"/>
@@ -45461,50 +44643,24 @@
       <c r="AML49"/>
     </row>
     <row r="50" spans="1:1026" s="99" customFormat="1" ht="25" customHeight="1">
-      <c r="A50" s="82" t="s">
-        <v>599</v>
-      </c>
-      <c r="B50" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D50" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E50" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="F50" s="82" t="s">
-        <v>642</v>
-      </c>
-      <c r="G50" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A50" s="82"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="86"/>
       <c r="I50" s="103"/>
-      <c r="J50" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K50" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L50" s="105">
-        <v>1</v>
-      </c>
-      <c r="M50" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J50" s="104"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="106"/>
       <c r="N50" s="87"/>
       <c r="O50" s="88"/>
       <c r="P50" s="107"/>
       <c r="Q50" s="54"/>
-      <c r="R50" s="181" t="s">
-        <v>261</v>
-      </c>
+      <c r="R50" s="169"/>
       <c r="S50" s="138"/>
       <c r="T50" s="93"/>
       <c r="U50" s="94"/>
@@ -45514,9 +44670,7 @@
       <c r="Y50" s="90"/>
       <c r="Z50" s="109"/>
       <c r="AA50" s="92"/>
-      <c r="AB50" s="91" t="s">
-        <v>116</v>
-      </c>
+      <c r="AB50" s="91"/>
       <c r="AC50" s="92"/>
       <c r="AD50" s="112"/>
       <c r="AE50" s="112"/>
@@ -45527,50 +44681,24 @@
       <c r="AJ50" s="88"/>
     </row>
     <row r="51" spans="1:1026" ht="25" customHeight="1">
-      <c r="A51" s="82" t="s">
-        <v>600</v>
-      </c>
-      <c r="B51" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D51" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E51" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="F51" s="82" t="s">
-        <v>643</v>
-      </c>
-      <c r="G51" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A51" s="82"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="86"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K51" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L51" s="105">
-        <v>1</v>
-      </c>
-      <c r="M51" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J51" s="104"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="106"/>
       <c r="N51" s="87"/>
       <c r="O51" s="88"/>
       <c r="P51" s="107"/>
       <c r="Q51" s="54"/>
-      <c r="R51" s="182" t="s">
-        <v>265</v>
-      </c>
+      <c r="R51" s="170"/>
       <c r="S51" s="138"/>
       <c r="T51" s="93"/>
       <c r="U51" s="94"/>
@@ -46581,50 +45709,24 @@
       <c r="AML51"/>
     </row>
     <row r="52" spans="1:1026" ht="25" customHeight="1">
-      <c r="A52" s="82" t="s">
-        <v>601</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D52" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E52" s="178" t="s">
-        <v>394</v>
-      </c>
-      <c r="F52" s="82" t="s">
-        <v>644</v>
-      </c>
-      <c r="G52" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A52" s="82"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="166"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="86"/>
       <c r="I52" s="103"/>
-      <c r="J52" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K52" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L52" s="105">
-        <v>1</v>
-      </c>
-      <c r="M52" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J52" s="104"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="105"/>
+      <c r="M52" s="106"/>
       <c r="N52" s="87"/>
       <c r="O52" s="88"/>
       <c r="P52" s="107"/>
       <c r="Q52" s="54"/>
-      <c r="R52" s="186" t="s">
-        <v>269</v>
-      </c>
+      <c r="R52" s="174"/>
       <c r="S52" s="138"/>
       <c r="T52" s="93"/>
       <c r="U52" s="94"/>
@@ -47635,43 +46737,19 @@
       <c r="AML52"/>
     </row>
     <row r="53" spans="1:1026" ht="25" customHeight="1">
-      <c r="A53" s="82" t="s">
-        <v>602</v>
-      </c>
-      <c r="B53" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D53" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E53" s="178" t="s">
-        <v>396</v>
-      </c>
-      <c r="F53" s="82" t="s">
-        <v>645</v>
-      </c>
-      <c r="G53" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H53" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A53" s="82"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="166"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="86"/>
       <c r="I53" s="103"/>
-      <c r="J53" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K53" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L53" s="105">
-        <v>1</v>
-      </c>
-      <c r="M53" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J53" s="104"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="106"/>
       <c r="N53" s="87"/>
       <c r="O53" s="88"/>
       <c r="P53" s="107"/>
@@ -48687,43 +47765,19 @@
       <c r="AML53"/>
     </row>
     <row r="54" spans="1:1026" ht="25" customHeight="1">
-      <c r="A54" s="82" t="s">
-        <v>603</v>
-      </c>
-      <c r="B54" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D54" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E54" s="178" t="s">
-        <v>395</v>
-      </c>
-      <c r="F54" s="82" t="s">
-        <v>646</v>
-      </c>
-      <c r="G54" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A54" s="82"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="86"/>
       <c r="I54" s="103"/>
-      <c r="J54" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K54" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L54" s="105">
-        <v>1</v>
-      </c>
-      <c r="M54" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J54" s="104"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="106"/>
       <c r="N54" s="87"/>
       <c r="O54" s="88"/>
       <c r="P54" s="107"/>
@@ -49739,43 +48793,19 @@
       <c r="AML54"/>
     </row>
     <row r="55" spans="1:1026" ht="25" customHeight="1">
-      <c r="A55" s="82" t="s">
-        <v>604</v>
-      </c>
-      <c r="B55" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D55" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E55" s="84" t="s">
-        <v>266</v>
-      </c>
-      <c r="F55" s="82" t="s">
-        <v>647</v>
-      </c>
-      <c r="G55" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A55" s="82"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="86"/>
       <c r="I55" s="103"/>
-      <c r="J55" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K55" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L55" s="105">
-        <v>1</v>
-      </c>
-      <c r="M55" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J55" s="104"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="106"/>
       <c r="N55" s="87"/>
       <c r="O55" s="88"/>
       <c r="P55" s="107"/>
@@ -50791,43 +49821,19 @@
       <c r="AML55"/>
     </row>
     <row r="56" spans="1:1026" ht="25" customHeight="1">
-      <c r="A56" s="82" t="s">
-        <v>605</v>
-      </c>
-      <c r="B56" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D56" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E56" s="84" t="s">
-        <v>392</v>
-      </c>
-      <c r="F56" s="82" t="s">
-        <v>648</v>
-      </c>
-      <c r="G56" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A56" s="82"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="82"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="86"/>
       <c r="I56" s="103"/>
-      <c r="J56" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K56" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L56" s="105">
-        <v>1</v>
-      </c>
-      <c r="M56" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J56" s="104"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="106"/>
       <c r="N56" s="87"/>
       <c r="O56" s="88"/>
       <c r="P56" s="107"/>
@@ -51843,43 +50849,19 @@
       <c r="AML56"/>
     </row>
     <row r="57" spans="1:1026" ht="25" customHeight="1">
-      <c r="A57" s="82" t="s">
-        <v>606</v>
-      </c>
-      <c r="B57" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D57" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E57" s="84" t="s">
-        <v>270</v>
-      </c>
-      <c r="F57" s="82" t="s">
-        <v>649</v>
-      </c>
-      <c r="G57" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H57" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A57" s="82"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="86"/>
       <c r="I57" s="103"/>
-      <c r="J57" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K57" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L57" s="105">
-        <v>1</v>
-      </c>
-      <c r="M57" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J57" s="104"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="106"/>
       <c r="N57" s="87"/>
       <c r="O57" s="88"/>
       <c r="P57" s="107"/>
@@ -52895,43 +51877,19 @@
       <c r="AML57"/>
     </row>
     <row r="58" spans="1:1026" ht="25" customHeight="1">
-      <c r="A58" s="82" t="s">
-        <v>607</v>
-      </c>
-      <c r="B58" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D58" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E58" s="178" t="s">
-        <v>394</v>
-      </c>
-      <c r="F58" s="82" t="s">
-        <v>650</v>
-      </c>
-      <c r="G58" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A58" s="82"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="166"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="86"/>
       <c r="I58" s="103"/>
-      <c r="J58" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K58" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L58" s="105">
-        <v>1</v>
-      </c>
-      <c r="M58" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J58" s="104"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="106"/>
       <c r="N58" s="87"/>
       <c r="O58" s="88"/>
       <c r="P58" s="107"/>
@@ -53947,43 +52905,19 @@
       <c r="AML58"/>
     </row>
     <row r="59" spans="1:1026" ht="25" customHeight="1">
-      <c r="A59" s="82" t="s">
-        <v>608</v>
-      </c>
-      <c r="B59" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D59" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E59" s="178" t="s">
-        <v>396</v>
-      </c>
-      <c r="F59" s="82" t="s">
-        <v>651</v>
-      </c>
-      <c r="G59" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H59" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A59" s="82"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="86"/>
       <c r="I59" s="103"/>
-      <c r="J59" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K59" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L59" s="105">
-        <v>1</v>
-      </c>
-      <c r="M59" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J59" s="104"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="106"/>
       <c r="N59" s="87"/>
       <c r="O59" s="88"/>
       <c r="P59" s="107"/>
@@ -54999,43 +53933,19 @@
       <c r="AML59"/>
     </row>
     <row r="60" spans="1:1026" ht="25" customHeight="1">
-      <c r="A60" s="82" t="s">
-        <v>609</v>
-      </c>
-      <c r="B60" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="84" t="s">
-        <v>545</v>
-      </c>
-      <c r="D60" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="E60" s="178" t="s">
-        <v>395</v>
-      </c>
-      <c r="F60" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="G60" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="H60" s="86" t="s">
-        <v>103</v>
-      </c>
+      <c r="A60" s="82"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="82"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="86"/>
       <c r="I60" s="103"/>
-      <c r="J60" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="K60" s="105" t="s">
-        <v>103</v>
-      </c>
-      <c r="L60" s="105">
-        <v>1</v>
-      </c>
-      <c r="M60" s="106" t="s">
-        <v>99</v>
-      </c>
+      <c r="J60" s="104"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="106"/>
       <c r="N60" s="87"/>
       <c r="O60" s="88"/>
       <c r="P60" s="107"/>
@@ -56055,7 +54965,7 @@
       <c r="B61" s="83"/>
       <c r="C61" s="84"/>
       <c r="D61" s="84"/>
-      <c r="E61" s="179"/>
+      <c r="E61" s="167"/>
       <c r="F61" s="89"/>
       <c r="G61" s="85"/>
       <c r="H61" s="86"/>
@@ -57083,7 +55993,7 @@
       <c r="B62" s="83"/>
       <c r="C62" s="84"/>
       <c r="D62" s="84"/>
-      <c r="E62" s="179"/>
+      <c r="E62" s="167"/>
       <c r="F62" s="89"/>
       <c r="G62" s="85"/>
       <c r="H62" s="86"/>
@@ -58111,7 +57021,7 @@
       <c r="B63" s="83"/>
       <c r="C63" s="84"/>
       <c r="D63" s="84"/>
-      <c r="E63" s="180"/>
+      <c r="E63" s="168"/>
       <c r="F63" s="89"/>
       <c r="G63" s="85"/>
       <c r="H63" s="86"/>
@@ -58149,7 +57059,7 @@
       <c r="B64" s="83"/>
       <c r="C64" s="84"/>
       <c r="D64" s="84"/>
-      <c r="E64" s="180"/>
+      <c r="E64" s="168"/>
       <c r="F64" s="89"/>
       <c r="G64" s="85"/>
       <c r="H64" s="86"/>
@@ -70879,8 +69789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:AM203"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N40"/>
+    <sheetView topLeftCell="A31" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
